--- a/src/main/resources/tariffs.xlsx
+++ b/src/main/resources/tariffs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>название</t>
   </si>
@@ -54,12 +54,6 @@
     <t>27000 фильмов и сериалов</t>
   </si>
   <si>
-    <t>роутер(100руб/мес);ТВ приставка(100руб/мес)</t>
-  </si>
-  <si>
-    <t>роутер(100руб/мес)</t>
-  </si>
-  <si>
     <t>175 руб/мес (6 месяцев) далее 350 руб/мес</t>
   </si>
   <si>
@@ -90,12 +84,6 @@
     <t>до 5 сим-карт, 2000 минут, 50 Гб, 500 СМС</t>
   </si>
   <si>
-    <t xml:space="preserve"> роутер(100руб/мес), ТВ приставка(100руб/мес)</t>
-  </si>
-  <si>
-    <t>роутер(100руб/мес), ТВ приставка(100руб/мес)</t>
-  </si>
-  <si>
     <t>350 руб/мес (6 месяцев), далее 700 руб/мес</t>
   </si>
   <si>
@@ -103,13 +91,49 @@
   </si>
   <si>
     <t>250 руб/мес (6 месяцев), далее 500 руб/мес</t>
+  </si>
+  <si>
+    <t>Моно. Технологии доступа</t>
+  </si>
+  <si>
+    <t>роутер (аренда/рассрочка/выкуп) - (150 руб./мес. / 295 руб./24мес. / 5990 руб.)</t>
+  </si>
+  <si>
+    <t>850 руб./мес.</t>
+  </si>
+  <si>
+    <t>Пакет. Технологии развлечения.</t>
+  </si>
+  <si>
+    <t>до 500</t>
+  </si>
+  <si>
+    <t>роутер (аренда/рассрочка/выкуп) - (150 руб./мес. / 295 руб./24мес. / 5990 руб.); аренда приставки - 100руб./мес.</t>
+  </si>
+  <si>
+    <t>1050 руб./мес.</t>
+  </si>
+  <si>
+    <t>до 200</t>
+  </si>
+  <si>
+    <t>350 руб./мес.</t>
+  </si>
+  <si>
+    <t>550 руб./мес.</t>
+  </si>
+  <si>
+    <t>(аренда) роутер(100руб/мес), ТВ приставка(100руб/мес)</t>
+  </si>
+  <si>
+    <t>(аренда) роутер(100руб/мес)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +141,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,12 +170,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -446,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +492,8 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="7" width="45.7109375" customWidth="1"/>
+    <col min="6" max="6" width="125.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -484,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -536,10 +571,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -565,10 +600,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -579,7 +614,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -591,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -608,7 +643,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -620,13 +655,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -637,7 +672,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -649,19 +684,135 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>195</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/tariffs.xlsx
+++ b/src/main/resources/tariffs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>название</t>
   </si>
@@ -105,16 +105,10 @@
     <t>Пакет. Технологии развлечения.</t>
   </si>
   <si>
-    <t>до 500</t>
-  </si>
-  <si>
     <t>роутер (аренда/рассрочка/выкуп) - (150 руб./мес. / 295 руб./24мес. / 5990 руб.); аренда приставки - 100руб./мес.</t>
   </si>
   <si>
     <t>1050 руб./мес.</t>
-  </si>
-  <si>
-    <t>до 200</t>
   </si>
   <si>
     <t>350 руб./мес.</t>
@@ -482,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -571,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -600,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -629,7 +623,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -658,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -687,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -703,8 +697,8 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
+      <c r="B8">
+        <v>500</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -732,8 +726,8 @@
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
+      <c r="B9">
+        <v>500</v>
       </c>
       <c r="C9">
         <v>195</v>
@@ -745,10 +739,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -761,8 +755,8 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
+      <c r="B10">
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -777,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -790,8 +784,8 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
+      <c r="B11">
+        <v>200</v>
       </c>
       <c r="C11">
         <v>195</v>
@@ -803,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>4</v>
